--- a/Test/Lawnmower/T2/Sensors_data_1000044.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000044.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6879531539387638</v>
+        <v>0.9662341852504003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009875872838471</v>
+        <v>0.001515554253372567</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09669444294293925</v>
+        <v>0.03706008965131596</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9929140826340705</v>
+        <v>0.8575016806805664</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00047078359370024</v>
+        <v>0.005678807307133014</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009875096791903459</v>
+        <v>0.04915002632287802</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9738164540447872</v>
+        <v>0.9545203982971212</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001161075900571603</v>
+        <v>0.0009307293587041219</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0238512326502151</v>
+        <v>0.1150082992418257</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9762581434881006</v>
+        <v>0.9755019488556512</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001223362863183099</v>
+        <v>0.001122403548621872</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1304830257936365</v>
+        <v>0.08200922133485206</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -575,18 +575,68 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2032305299607987</v>
+        <v>0.9969964049771283</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03848326652827537</v>
+        <v>0.0002408757647221384</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03100816753250746</v>
+        <v>0.01313658311336352</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9365141225065871</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.003306817230928178</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01943781874624695</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3849156434312082</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01946661203944385</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1112785355735102</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
